--- a/数据整理/stocks/A股/上证主板/603456-九洲药业.xlsx
+++ b/数据整理/stocks/A股/上证主板/603456-九洲药业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7927,4 +7928,4124 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H108"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001717</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>125.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.2869</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000831</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信医疗保健行业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>47.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9146</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002408</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3209</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001171</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信养老产业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7009</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>30.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5224</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010264</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>82.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>69.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4877</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>27.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3043</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005303</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2806</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009994</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1532</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>213003</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>宝盈策略增长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0069</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007553</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.76</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9701</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010393</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信健康生活混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>21.40</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9566</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000711</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.89</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9515</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010090</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7006</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>090001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成价值增长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>72.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6743</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519110</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.22</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6036</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000793</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>18.56</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5976</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>871003</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发资管价值增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5838</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>481015</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>14.57</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5770</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>213002</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>宝盈泛沿海增长混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5685</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004040</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5640</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009623</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长城创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.77</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.09</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5603</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519126</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浦银安盛新经济结构灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5389</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010685</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5159</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010418</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>财通景气行业一年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4111</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000339</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长城医疗保健混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.78</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3638</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000017</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>财通可持续发展主题混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3401</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006003</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银瑞信医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3332</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009368</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3295</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004041</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2885</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>090020</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>大成健康产业混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2773</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>168105</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>九泰泰富定增主题灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>70.93</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2668</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008983</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>财通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2431</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010091</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2207</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>501026</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>财通多策略福享混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2043</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005304</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1943</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007066</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1943</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010764</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>九泰锐升18个月封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>78.80</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1942</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009995</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1925</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>银河康乐股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1857</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001070</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>建信信息产业股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1735</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>530011</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>建信内生动力混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1702</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001496</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>工银瑞信聚焦30股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1497</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001413</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1485</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005433</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1459</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004683</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1447</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1363</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008962</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>建信科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1331</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010265</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>69.26</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1328</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010394</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>工银瑞信健康生活混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1305</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007067</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1225</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009531</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>九泰锐和18个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>67.60</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1216</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>519113</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>浦银安盛精致生活混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1176</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1159</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011383</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>富安达医药创新混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1139</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>519120</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>95.09</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1130</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>501028</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>财通多策略福瑞混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1052</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010709</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0936</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>007146</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>鹏华研究智选混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001366</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>金鹰产业整合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>501032</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001739</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中融融安二号灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>76.25</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>487021</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>工银瑞信优质精选混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>80.59</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001365</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>大成正向回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>000110</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>金鹰元安混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009369</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>210006</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>金鹰元禧混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>25.11</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>210010</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>23.33</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>007481</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华夏逸享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>48.09</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001414</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001734</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>001735</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>002378</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>建信弘利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>86.60</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>008984</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>财通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>165317</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>建信丰裕多策略灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>004274</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>浦银安盛安恒回报定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>23.99</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>006522</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>168301</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>东海祥龙灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>002513</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>金鹰元安混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>002425</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>金鹰元禧混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>25.11</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>530016</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>建信恒稳价值混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>77.15</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>570006</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>诺德中小盘混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010710</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>006967</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>财通行业龙头精选混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>002585</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>建信兴利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>66.39</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>210011</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>23.33</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>004275</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>浦银安盛安恒回报定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>23.99</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>81.04</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>008963</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>建信科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>006193</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>006968</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>财通行业龙头精选混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>000822</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>东海美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>001914</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>39.96</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>005260</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>005290</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>006523</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>006538</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>东海核心价值精选混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>006845</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>39.96</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>009710</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>005261</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>006194</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>960031</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合H</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603456-九洲药业.xlsx
+++ b/数据整理/stocks/A股/上证主板/603456-九洲药业.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12048,4 +12049,5340 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H140"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001717</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>175.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.6684</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006228</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>116.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.5418</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000831</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信医疗保健行业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>53.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.8548</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002408</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.1395</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001171</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信养老产业股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>38.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.7538</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519126</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浦银安盛新经济结构灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>39.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.8980</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>33.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8886</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006229</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>37.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.7654</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>100022</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国天瑞强势地区精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>50.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.7377</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010685</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.4969</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007553</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.41</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.4886</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>24.70</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.4795</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010393</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信健康生活混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>22.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.2854</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004075</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>交银施罗德医药创新股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>35.87</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.2016</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011069</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银瑞信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>19.39</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.1847</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010550</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华商双擎领航混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>19.96</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.89</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.1018</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011037</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国长期成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>78.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>27.95</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.0452</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000945</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>21.24</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8921</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002708</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大摩健康产业混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>14.82</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8788</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004040</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8633</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011373</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>16.51</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>63.82</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.8420</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>090001</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成价值增长混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>15.68</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>71.17</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7715</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>870005</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发资管核心精选一年持有期混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>27.41</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>74.28</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7291</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000711</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.7289</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010090</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.7158</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000793</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>16.22</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6764</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>481015</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>14.27</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.6764</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011673</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>11.38</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>54.90</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.6122</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005303</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>16.58</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5886</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009774</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>财通资管优选回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>15.63</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5877</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009368</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>11.85</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5818</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519110</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5627</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011826</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>17.32</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>63.82</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.5317</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>519170</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>10.66</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.5181</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004041</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.5005</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>519171</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4612</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>000339</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长城医疗保健混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4455</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006003</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>工银瑞信医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4374</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002919</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4028</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010654</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3758</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>090020</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>大成健康产业混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3743</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001558</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3645</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002264</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华夏乐享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>68.70</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3588</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005840</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国产业驱动混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>10.37</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>80.99</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3391</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008786</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长城健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3360</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010394</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>工银瑞信健康生活混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3260</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009623</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>长城创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3124</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011884</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>工银瑞信景气优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>11.93</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3078</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011717</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>52.98</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3006</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005689</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>12.40</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>81.94</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2840</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>100029</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>富国天成红利混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>11.40</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>77.05</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2782</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010418</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>财通景气行业一年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2634</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010091</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2604</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005433</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2416</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010764</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>九泰锐升18个月封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2308</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009369</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2121</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001559</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2119</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>163001</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1975</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>012086</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>博时健康生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>69.48</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1764</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>11.68</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1752</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001413</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>80.20</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1687</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>952035</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>国泰君安君得诚混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>76.39</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1680</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>000017</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>财通可持续发展主题混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1664</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009364</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1652</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>000946</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1562</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009531</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>九泰锐和18个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>73.59</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1442</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010655</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1418</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011827</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>63.82</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1351</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>007718</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1343</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>008962</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>建信科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1286</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>519120</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1264</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011383</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>富安达医药创新混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1250</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011070</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>工银瑞信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>79.81</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1240</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>240017</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华宝新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>82.85</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1230</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>519113</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>浦银安盛精致生活混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1188</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>004683</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1159</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>000763</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>工银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1102</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>001443</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>26.10</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001444</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>26.10</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1076</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010709</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1073</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>005304</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0955</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001365</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>大成正向回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0901</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>001294</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>新华战略新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0849</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>000110</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>金鹰元安混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>22.92</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>001739</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>中融融安二号灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>77.66</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>003032</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>平安医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>011374</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>63.82</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>501032</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>71.04</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>210006</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>金鹰元禧混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>21.36</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>872021</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>广发资管核心精选一年持有期混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>74.28</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>002594</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>工银瑞信现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>73.18</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>210010</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>22.80</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>501028</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>财通多策略福瑞混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>011674</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>54.90</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>001827</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>富国研究优选沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>80.73</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>519175</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>浦银安盛经济带崛起灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>27.00</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>011885</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>工银瑞信景气优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>001414</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>80.20</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>001734</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>001735</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>005472</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>富国价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>001267</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>泰达宏利蓝筹价值混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>007861</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>80.54</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>377150</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>上投摩根健康品质生活混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>80.52</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>012087</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>博时健康生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>69.48</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>000059</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>002425</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>金鹰元禧混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>21.36</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>009365</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>011718</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>52.98</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>003284</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>中邮医药健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>510660</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>华夏上证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>002513</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>金鹰元安混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>22.92</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>180028</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>银华永祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>74.63</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>210011</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>22.80</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>007862</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>80.54</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>010710</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>004573</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>新华鑫泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>83.28</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>005209</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>东吴双三角股票A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>008135</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>华宸未来价值先锋混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>007775</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>59.44</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>006967</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>财通行业龙头精选混合A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>006193</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>80.21</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>008963</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>建信科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>006240</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>010159</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>81.94</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>005473</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>富国价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>006968</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>财通行业龙头精选混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>007776</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>59.44</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>006241</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>005210</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>东吴双三角股票C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>006569</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>006194</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>80.21</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>960031</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合H</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603456-九洲药业.xlsx
+++ b/数据整理/stocks/A股/上证主板/603456-九洲药业.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17385,4 +17386,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>139</v>
+      </c>
+      <c r="D2" t="n">
+        <v>70.19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>107</v>
+      </c>
+      <c r="D3" t="n">
+        <v>39.27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>120</v>
+      </c>
+      <c r="D4" t="n">
+        <v>30.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>74</v>
+      </c>
+      <c r="D5" t="n">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603456-九洲药业.xlsx
+++ b/数据整理/stocks/A股/上证主板/603456-九洲药业.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17394,7 +17395,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17405,17 +17406,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -17425,14 +17446,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>139</v>
-      </c>
-      <c r="D2" t="n">
-        <v>70.19</v>
+          <t>003096</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>434.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.8621</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -17441,14 +17484,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>107</v>
-      </c>
-      <c r="D3" t="n">
-        <v>39.27</v>
+          <t>006228</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>130.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.6207</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -17457,14 +17522,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>120</v>
-      </c>
-      <c r="D4" t="n">
-        <v>30.05</v>
+          <t>006113</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富创新医药主题混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>104.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.2541</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -17473,13 +17560,5653 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>008065</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>125.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.7656</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001413</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>50.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>58.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.7044</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009664</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>60.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>67.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.1170</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>470006</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>59.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.0347</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000831</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信医疗保健行业股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>49.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.9244</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006229</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>48.92</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.8471</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001417</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>47.98</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.4134</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001171</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信养老产业股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>40.51</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.2524</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005453</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>30.78</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.1608</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007553</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>24.17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.1149</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519126</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浦银安盛新经济结构灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>50.04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.0166</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010685</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>34.99</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.8650</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006002</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银瑞信医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>37.74</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.7625</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>100022</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国天瑞强势地区精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>53.79</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.31</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.5384</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011037</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国长期成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>80.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>55.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.5200</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010393</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银瑞信健康生活混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>19.21</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.1468</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005454</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>16.21</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.1379</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银瑞信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.0629</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000945</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>17.57</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.9558</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011373</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>17.38</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.9524</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519171</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>17.55</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.8845</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000711</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>13.07</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.8770</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005303</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>15.72</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.8489</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009368</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.21</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.8256</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>090001</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>大成价值增长混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>18.65</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>75.95</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7870</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011069</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银瑞信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>19.02</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>64.30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.7779</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008359</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华安医疗创新混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>12.09</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.7351</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000339</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长城医疗保健混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.6477</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010264</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>48.27</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>69.67</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.6468</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>399011</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中海医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>14.55</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.6460</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010090</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.5968</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004075</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>交银施罗德医药创新股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.5931</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011826</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>14.23</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.5877</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008412</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>12.38</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.5670</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011673</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>11.27</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.5635</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004041</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.5635</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006003</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>工银瑞信医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>10.75</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.5020</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012284</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>光大保德信健康优加混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>17.66</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>63.01</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4821</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010654</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>12.75</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4616</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>建信健康民生混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>13.51</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4593</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001734</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>72.21</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4146</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001735</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>72.21</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.4146</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>240020</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华宝医药生物优选混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3749</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002264</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华夏乐享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>72.96</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3527</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002919</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3448</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001443</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>45.02</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>25.43</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3331</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001444</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>45.02</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>25.43</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3331</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008786</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长城健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3259</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005840</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>富国产业驱动混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>12.43</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3182</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002708</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>大摩健康产业混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.3179</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>519110</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>10.74</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.3050</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>000878</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2999</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008962</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>建信科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2997</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010091</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2970</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>090020</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>大成健康产业混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2948</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009623</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>长城创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2945</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010394</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>工银瑞信健康生活混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2943</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009665</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>67.12</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2678</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>519170</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>10.22</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2606</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>012045</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>大成医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2493</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009369</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>86.21</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2404</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010764</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>九泰锐升18个月封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2358</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005433</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2312</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>002408</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2152</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>004040</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2113</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>000946</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2094</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011601</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2069</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>165313</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>建信优势动力混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.2050</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>163001</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.2017</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>008066</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>79.46</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1800</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>000974</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>安信消费医药主题股票</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1766</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011827</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1722</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>005304</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1517</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>002300</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>长盛医疗行业量化配置股票</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1498</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010655</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1484</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>009531</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>九泰锐和18个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>73.75</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1473</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>519993</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>长信增利动态策略混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1307</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010054</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>万家健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1294</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>009898</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1292</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>360005</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>光大保德信红利混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1276</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>005674</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>诺德消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1233</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>001717</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1178</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>006981</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>中金新医药股票A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1133</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>000763</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>工银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1127</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>012080</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>10.89</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>84.57</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1111</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>007861</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1107</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>004683</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>77.80</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1046</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>000684</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>长盛养老健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>85.95</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0926</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>011070</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>工银瑞信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>64.30</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>000523</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>011181</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>76.92</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0823</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>011788</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>工银聚益混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>29.81</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0819</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>001739</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>中融融安二号灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>000030</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>长城核心优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>012878</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>519120</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>87.71</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0787</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>519113</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>浦银安盛精致生活混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>001827</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>富国研究优选沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>001365</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>大成正向回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>011374</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>001294</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>新华战略新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>000879</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>011602</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>011383</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>富安达医药创新混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>003095</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>中欧医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>010878</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>诺德优势产业混合</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>006881</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>华宝大健康混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>012879</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>007481</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>华夏逸享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>75.78</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>010265</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>69.67</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>011674</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>571002</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>诺德主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>79.02</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>501032</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>001267</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>泰达宏利蓝筹价值混合</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>005293</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>诺德新旺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>87.73</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>001414</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>58.13</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>510660</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>华夏上证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>98.06</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>360010</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>光大保德信均衡精选混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>005520</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>国投瑞银创新医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>010055</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>万家健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>008413</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>012046</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>大成医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>007005</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>中金新医药股票C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>012081</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>84.57</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>005237</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>007862</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>005209</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>东吴双三角股票A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>570006</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>诺德中小盘混合</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>008300</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>008963</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>建信科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>004352</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>北信瑞丰研究精选股票</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>005238</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>005210</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>东吴双三角股票C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>004806</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>长信先机两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>76.84</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>011182</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>76.92</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>006538</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>东海核心价值精选混合</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>008301</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>011789</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>工银聚益混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>29.81</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>0</v>
+      </c>
+      <c r="H147" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>960031</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合H</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>014011</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>960015</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合O</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>149</v>
+      </c>
+      <c r="D2" t="n">
+        <v>93.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>139</v>
+      </c>
+      <c r="D3" t="n">
+        <v>70.19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>107</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39.27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>120</v>
+      </c>
+      <c r="D5" t="n">
+        <v>30.05</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>74</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>29</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603456-九洲药业.xlsx
+++ b/数据整理/stocks/A股/上证主板/603456-九洲药业.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -23105,7 +23106,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23116,17 +23117,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -23136,14 +23157,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>149</v>
-      </c>
-      <c r="D2" t="n">
-        <v>93.14</v>
+          <t>001717</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>180.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.7289</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -23152,14 +23195,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>139</v>
-      </c>
-      <c r="D3" t="n">
-        <v>70.19</v>
+          <t>006228</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>113.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.5765</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -23168,14 +23233,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>107</v>
-      </c>
-      <c r="D4" t="n">
-        <v>39.27</v>
+          <t>006113</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富创新医药主题混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.5260</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -23184,14 +23271,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>120</v>
-      </c>
-      <c r="D5" t="n">
-        <v>30.05</v>
+          <t>004851</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>118.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.0767</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -23200,13 +23309,5779 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>006229</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>43.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.5259</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>470006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>49.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.4820</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002408</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.3754</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000831</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信医疗保健行业股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>44.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.0346</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008657</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>43.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.7835</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001417</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>38.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.7725</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>015122</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>38.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.7725</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>050026</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>44.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.7615</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001171</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信养老产业股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>37.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.6987</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010685</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>29.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.4331</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008065</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>41.22</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>73.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.4262</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004075</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>交银施罗德医药创新股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>31.60</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.3936</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007553</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.34</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.2340</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>481001</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>45.07</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.2124</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009664</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>38.71</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>67.08</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.2000</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000913</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>农银医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>22.47</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.1617</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004040</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.91</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.9852</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011069</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银瑞信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>16.32</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>72.98</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.8731</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000711</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>13.07</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.8639</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001822</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>21.89</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.8559</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>090001</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>大成价值增长混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>18.65</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>61.32</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.8486</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011826</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>14.08</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.8462</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>870005</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发资管核心精选一年持有期混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.8175</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>519171</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>15.50</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7672</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005303</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>14.18</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.7317</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000945</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>14.81</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.7094</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002708</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>大摩健康产业混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>13.96</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.6701</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004041</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.6601</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010264</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>42.07</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>72.05</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.6563</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000339</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长城医疗保健混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.6426</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009163</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>18.24</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.6275</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>460005</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.5257</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011673</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.5060</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008293</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>农银汇理创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>10.12</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4999</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010090</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4849</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012284</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>光大保德信健康优加混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>14.49</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4709</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>399011</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中海医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>10.58</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4539</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002264</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏乐享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3405</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3383</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008359</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华安医疗创新混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3271</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002919</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3190</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008786</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长城健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>78.57</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3180</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>090020</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>大成健康产业混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2978</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>014114</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>广发沪港深医药混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2921</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004905</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2865</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008983</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>财通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2730</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>240020</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华宝医药生物优选混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>84.43</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2683</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001558</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2633</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>000878</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2550</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009794</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>太平智选一年定期开放股票</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2475</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>013037</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>长城大健康混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>39.47</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2327</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001915</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>宝盈医疗健康沪港深股票</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2187</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002967</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>浙商大数据智选消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2187</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>519110</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2171</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011827</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2134</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010091</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2032</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010764</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>九泰锐升18个月封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>78.81</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2029</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005805</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2015</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009623</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>长城创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>81.88</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2008</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>519170</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>85.61</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2006</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005689</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1942</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>012045</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>大成医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1894</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009468</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1879</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>005664</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>16.39</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>27.81</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1819</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>000974</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>安信消费医药主题股票</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1816</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>163001</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1739</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009898</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1638</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001559</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1572</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>008066</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>73.48</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1491</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>000946</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1490</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>005304</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1471</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>013956</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华商医药消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>25.45</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1383</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009665</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>67.08</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1355</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>005433</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1340</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>009531</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>九泰锐和18个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>70.75</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1271</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>012086</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>博时健康生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1232</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001106</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华商健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1213</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011895</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1150</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001413</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>61.36</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>011070</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>工银瑞信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>72.98</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1022</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>001722</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>工银瑞信银和利混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>29.15</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>007718</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>000879</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>000684</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>长盛养老健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>014115</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>广发沪港深医药混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>011788</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>工银聚益混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>30.38</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>008984</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>财通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>001569</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>泰信国策驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>519120</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>005674</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>诺德消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>006981</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>中金新医药股票A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>001739</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>中融融安二号灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>81.47</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>519113</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>浦银安盛精致生活混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>872021</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>广发资管核心精选一年持有期混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>008412</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>001294</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>新华战略新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>010265</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>72.05</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>001267</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>泰达宏利蓝筹价值混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>630016</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>华商价值共享</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>011181</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>005472</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>富国价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>77.87</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>006881</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>华宝大健康混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>010878</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>诺德优势产业混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>011674</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>007923</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>方正富邦天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>80.49</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>007924</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>方正富邦天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>80.49</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>571002</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>诺德主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>77.03</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>009469</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>007481</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>华夏逸享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>77.27</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>005665</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>27.81</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>001414</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>61.36</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>007861</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>008061</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>510660</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>华夏上证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>98.37</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>012087</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>博时健康生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>006072</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>360010</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>光大保德信均衡精选混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>87.85</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>010253</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>008413</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>011205</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>009842</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>东方红明鉴优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>012046</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>大成医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>007005</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>中金新医药股票C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>010031</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>013038</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>长城大健康混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>39.47</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>013957</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>华商医药消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>25.45</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>005209</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>东吴双三角股票A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>010159</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>011453</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>006240</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>005210</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>东吴双三角股票C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>570006</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>诺德中小盘混合</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>007862</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>013072</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>73.32</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>005473</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>富国价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>77.87</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>006241</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>001563</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>华富健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>010037</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>008062</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>011182</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>960010</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>工银核心价值混合H</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>960015</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合O</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>960031</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合H</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>014011</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>011789</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>工银聚益混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>30.38</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>013073</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>73.32</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>0</v>
+      </c>
+      <c r="H154" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>153</v>
+      </c>
+      <c r="D2" t="n">
+        <v>76.77</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>149</v>
+      </c>
+      <c r="D3" t="n">
+        <v>93.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>139</v>
+      </c>
+      <c r="D4" t="n">
+        <v>70.19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>107</v>
+      </c>
+      <c r="D5" t="n">
+        <v>39.27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>120</v>
+      </c>
+      <c r="D6" t="n">
+        <v>30.05</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>74</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>29</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603456-九洲药业.xlsx
+++ b/数据整理/stocks/A股/上证主板/603456-九洲药业.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -28964,7 +28965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28975,17 +28976,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -28995,14 +29016,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>153</v>
-      </c>
-      <c r="D2" t="n">
-        <v>76.77</v>
+          <t>003095</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>710.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>21.0400</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -29011,14 +29054,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>149</v>
-      </c>
-      <c r="D3" t="n">
-        <v>93.14</v>
+          <t>001717</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>177.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>11.8915</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -29027,14 +29092,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>139</v>
-      </c>
-      <c r="D4" t="n">
-        <v>70.19</v>
+          <t>003096</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>384.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>11.3948</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -29043,14 +29130,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>107</v>
-      </c>
-      <c r="D5" t="n">
-        <v>39.27</v>
+          <t>006228</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>126.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>7.6642</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -29059,14 +29168,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>120</v>
-      </c>
-      <c r="D6" t="n">
-        <v>30.05</v>
+          <t>006113</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富创新医药主题混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>6.0570</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -29075,13 +29206,7011 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>470006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>61.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.1426</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000831</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信医疗保健行业股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>47.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.2585</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006229</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>49.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.0115</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009664</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>39.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>71.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.5864</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008065</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>46.90</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.3262</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001171</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信养老产业股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>31.81</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.3062</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008657</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>40.61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.1198</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001417</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>39.91</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.1033</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004075</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>交银施罗德医药创新股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>42.04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.0263</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014046</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>交银施罗德医药创新股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>42.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.0263</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010685</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>29.66</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.9843</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002408</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.7318</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002708</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大摩健康产业混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.6425</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>050026</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>43.09</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.6116</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000913</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>农银医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.3612</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000960</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商医药健康产业股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>33.48</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.54</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.0345</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004040</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>10.13</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.9380</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011069</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工银瑞信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>16.01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.9302</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005453</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.8955</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>161616</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>融通医疗保健行业混合A/B</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>15.29</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.8914</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007553</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.8693</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006002</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银瑞信医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>25.57</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.8208</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000711</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.8059</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.7954</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011826</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>14.17</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.7822</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005303</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>16.20</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.7808</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012888</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银兴瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>22.73</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.41</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.7546</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014228</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>浦银安盛品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>78.02</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.7326</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>090001</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>大成价值增长混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>13.41</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>70.17</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.7228</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001298</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>金鹰民族新兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.6877</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000945</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>15.34</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.6704</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004041</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>10.13</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.6281</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010654</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>12.09</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.5997</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>57.26</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.5440</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008293</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>农银汇理创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.5327</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>000339</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长城医疗保健混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>10.22</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.5294</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012284</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>光大保德信健康优加混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>13.93</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.5015</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>399011</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中海医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4832</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>519171</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4699</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005454</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>11.99</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.4664</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>502056</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>19.01</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.4125</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011673</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.4121</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006003</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>工银瑞信医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3643</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>163302</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>大摩资源优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3257</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>000878</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3033</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>240020</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华宝医药生物优选混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2902</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009665</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>71.43</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2886</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>161601</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>融通新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>12.69</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>73.68</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2843</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002264</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华夏乐享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2771</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001558</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>79.56</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2691</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>090020</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>大成健康产业混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2658</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>004905</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2605</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2548</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009468</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2531</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001915</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>宝盈医疗健康沪港深股票</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2509</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008786</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>长城健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>81.54</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2460</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>013183</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2428</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>012368</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2409</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008066</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2321</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002919</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2320</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>013037</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>长城大健康混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>68.55</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2270</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>002967</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>浙商大数据智选消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2226</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>005805</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2177</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010764</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>九泰锐升18个月封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2166</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010090</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2102</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>005689</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.2067</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>012045</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>大成医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.2024</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>009881</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1920</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011827</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1910</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>163001</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1839</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010655</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1776</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>012238</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>工银瑞信养老产业股票C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1762</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>95.54</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1748</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005304</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1697</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>519993</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>长信增利动态策略混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1636</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>014030</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>大摩健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1611</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>001559</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>79.56</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1584</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>000946</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1412</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>010091</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1391</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>002300</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>长盛医疗行业量化配置股票</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1386</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>014114</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>广发沪港深医药混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1343</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011948</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1273</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>159606</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>易方达中证500质量成长ETF</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>97.95</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1244</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>012086</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>博时健康生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1124</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>360005</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>光大保德信红利混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>81.77</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1115</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1088</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>005674</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>诺德消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1057</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>011070</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>工银瑞信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1046</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>000879</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1009</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>007718</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0998</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>005433</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>001413</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>006981</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>中金新医药股票A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>011601</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>013940</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>东吴医疗服务股票A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>012889</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>工银兴瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>85.41</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>001739</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>中融融安二号灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>81.82</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>95.54</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>010878</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>诺德优势产业混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>159847</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>易方达中证医疗交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>009275</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>融通医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>000684</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>长盛养老健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>001365</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>大成正向回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>014867</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>012080</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>011181</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>009893</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>008412</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>009531</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>九泰锐和18个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>014115</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>广发沪港深医药混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>011895</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>571002</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>诺德主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>009469</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>006881</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>华宝大健康混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>001267</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>泰达宏利蓝筹价值混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>001294</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>新华战略新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>007923</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>方正富邦天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>81.38</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>007924</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>方正富邦天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>81.38</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>011788</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>工银聚益混合A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>39.74</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>008061</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>011674</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>001414</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>011602</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>000110</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>金鹰元安混合A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>24.86</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>014229</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>浦银安盛品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>78.02</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>007481</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>华夏逸享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>75.65</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>013441</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>西藏东财创新医疗六个月定开混合</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>78.42</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>013941</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>东吴医疗服务股票C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>510660</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>华夏上证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>360010</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>光大保德信均衡精选混合</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>008533</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>惠升惠兴混合A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>43.18</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>210006</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>金鹰元禧混合A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>24.21</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>012087</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>博时健康生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>210010</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>560500</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>98.85</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>011453</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>005293</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>诺德新旺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>009842</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>东方红明鉴优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>26.03</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>008413</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>012046</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>大成医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>012369</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>007861</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>007005</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>中金新医药股票C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>012081</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>210011</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>014603</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>嘉实中证医疗指数C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>002425</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>金鹰元禧混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>24.21</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>013038</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>长城大健康混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>68.55</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>010031</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>013332</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>002513</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>金鹰元安混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>24.86</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>010159</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>014820</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>华安创新医药锐选量化股票A</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>014285</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>鑫元健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>015139</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>泰康医疗健康股票A</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>008062</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>007862</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>013072</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合A</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>014286</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>鑫元健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>014602</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>嘉实中证医疗指数A</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>015140</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>泰康医疗健康股票C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>013154</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>011182</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>008534</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>惠升惠兴混合C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>43.18</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>015121</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>015171</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>015065</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>华夏乐享健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>011789</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>工银聚益混合C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>39.74</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G182" t="n">
+        <v>0</v>
+      </c>
+      <c r="H182" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>960015</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合O</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G183" t="n">
+        <v>0</v>
+      </c>
+      <c r="H183" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>013073</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G184" t="n">
+        <v>0</v>
+      </c>
+      <c r="H184" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>015122</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G185" t="n">
+        <v>0</v>
+      </c>
+      <c r="H185" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>014813</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>浙商大数据智选消费灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G186" t="n">
+        <v>0</v>
+      </c>
+      <c r="H186" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>015066</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>华夏逸享健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>75.65</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G187" t="n">
+        <v>0</v>
+      </c>
+      <c r="H187" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>186</v>
+      </c>
+      <c r="D2" t="n">
+        <v>123.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>153</v>
+      </c>
+      <c r="D3" t="n">
+        <v>76.77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>149</v>
+      </c>
+      <c r="D4" t="n">
+        <v>93.14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>139</v>
+      </c>
+      <c r="D5" t="n">
+        <v>70.19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>107</v>
+      </c>
+      <c r="D6" t="n">
+        <v>39.27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>120</v>
+      </c>
+      <c r="D7" t="n">
+        <v>30.05</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>74</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>29</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603456-九洲药业.xlsx
+++ b/数据整理/stocks/A股/上证主板/603456-九洲药业.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="D2" t="n">
-        <v>123.43</v>
+        <v>58.38</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="D3" t="n">
-        <v>76.77</v>
+        <v>123.43</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D4" t="n">
-        <v>93.14</v>
+        <v>76.77</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D5" t="n">
-        <v>70.19</v>
+        <v>93.14</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="D6" t="n">
-        <v>39.27</v>
+        <v>70.19</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="D7" t="n">
-        <v>30.05</v>
+        <v>39.27</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>120</v>
+      </c>
+      <c r="D8" t="n">
+        <v>30.05</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>74</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>29</v>
       </c>
     </row>
@@ -600,6 +617,5634 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H148"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001717</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银前沿医疗股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>131.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.4358</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006113</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富创新医药主题混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>85.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.8576</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>470006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>46.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.4945</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006228</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>66.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.2656</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000831</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>41.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.1351</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006229</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>51.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.5311</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001171</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银养老产业股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.1360</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002708</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大摩健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.8950</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010685</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银前沿医疗股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>28.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.8170</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009664</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>29.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>66.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.7915</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008065</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>37.77</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>68.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.7488</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006002</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20.93</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0905</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000913</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>农银医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.68</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0311</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>050026</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>32.65</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9077</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000960</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商医药健康产业股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>27.32</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9043</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000711</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>14.17</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8814</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012888</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银兴瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7818</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007553</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.66</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6670</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011069</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.40</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>60.10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6349</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002408</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6263</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005303</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.55</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5856</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>161616</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>融通医疗保健行业混合A/B</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12.82</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5846</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>090001</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成价值增长混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>12.69</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>64.34</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5622</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006003</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5538</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013552</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富成长领先混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.27</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>62.59</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4950</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004041</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4518</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005454</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>11.13</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4485</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010393</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银健康生活混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4380</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519171</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4279</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008293</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>农银汇理创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4044</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012284</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>光大保德信健康优加混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3806</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014030</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>大摩健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3762</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000339</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长城医疗保健混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3741</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005453</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3671</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>399011</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中海医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3665</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010314</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3655</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>163302</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>大摩资源优选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>79.56</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3520</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>240020</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华宝医药生物优选混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2903</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013553</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇添富成长领先混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>62.59</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2829</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011673</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2702</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>233007</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>大摩卓越成长混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2519</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011826</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>85.74</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2516</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012368</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2285</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009665</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>66.68</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2232</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006218</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2187</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012238</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>工银养老产业股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>80.17</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2153</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005304</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2124</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008066</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>68.44</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2056</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009468</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2047</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008786</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长城健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2024</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>013293</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长城健康消费混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>76.79</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1988</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>013037</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长城大健康混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>72.73</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1912</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>090020</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>大成健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1904</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010764</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>九泰锐升混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>54.42</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1640</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>000878</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1614</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1567</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>004040</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1559</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>233006</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>大摩领先优势混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1527</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>013357</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>大摩沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1414</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012045</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>大成医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1384</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>163001</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1367</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>014867</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1298</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010090</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>161035</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>富国中证医药主题指数增强型（LOF）</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1028</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010394</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>工银健康生活混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011070</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>工银成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>60.10</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009893</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>012889</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>工银兴瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010091</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011827</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>85.74</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>013183</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>000879</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>013356</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>大摩沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>001739</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中融融安二号灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>76.65</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>001365</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>大成正向回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>011601</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011308</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001413</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>005674</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>诺德消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>009469</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>009275</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>融通医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>009531</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>九泰锐和18个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>79.92</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>001267</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>泰达宏利蓝筹价值混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>014121</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>大成品质医疗股票A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011181</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>78.92</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>006881</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>华宝大健康混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>015056</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>百嘉百盛混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>62.90</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010878</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>诺德优势产业混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>011602</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>007924</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>方正富邦天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>62.12</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>001352</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>民生加银新战略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>46.20</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>011674</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>571002</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>诺德主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>78.99</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>510660</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>华夏上证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>009842</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>东方红明鉴优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>011788</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>工银聚益混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>39.28</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>360010</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>光大保德信均衡精选混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>001414</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>012046</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>大成医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>012369</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>006241</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>005626</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>富国中证医药主题指数增强型（LOF）C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>168105</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>九泰泰富灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>013038</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>长城大健康混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>72.73</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>003760</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>007861</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>015562</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>长城医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>015507</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>兴业中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>014122</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>大成品质医疗股票C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>015508</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>兴业中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>002303</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>金鹰智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>64.10</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>011895</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>013154</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>014869</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>007943</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>富安达中证 500 指数增强</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>007862</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>014820</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>华安创新医药锐选量化股票A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>004801</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>浦银安盛安久回报定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>21.44</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>006240</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>004918</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>79.07</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>011391</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>民生加银新战略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>46.20</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>003761</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>011182</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>78.92</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>004917</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>79.07</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>014821</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>华安创新医药锐选量化股票C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>960015</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合O</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>016060</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>大成健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>007923</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>方正富邦天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>62.12</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>014171</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>004802</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>浦银安盛安久回报定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>21.44</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>015688</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>九泰泰富灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>0</v>
+      </c>
+      <c r="H147" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>011789</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>工银聚益混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>39.28</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7711,7 +13356,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13569,7 +19214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19279,7 +24924,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -24615,7 +30260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -28735,7 +34380,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -33351,7 +38996,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
